--- a/_Drive/Publicacoes/clodoaldo.xlsx
+++ b/_Drive/Publicacoes/clodoaldo.xlsx
@@ -8,133 +8,425 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhBspnwl71JfWqlgA+X+/mYiTagTA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TbiYudrlGmkTu2mx58hsJ/wmVzd//MiTLaurfpvBIv4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>10.1002/app.25671</t>
-  </si>
-  <si>
-    <t>10.1007/s10924-020-01883-9</t>
-  </si>
-  <si>
-    <t>10.1080/15440478.2017.1379044</t>
-  </si>
-  <si>
-    <t>10.1007/s13762-021-03229-x</t>
-  </si>
-  <si>
-    <t>10.1002/app.47456</t>
-  </si>
-  <si>
-    <t>10.6000/1929-5995.2016.05.02.1</t>
-  </si>
-  <si>
-    <t>10.1016/j.jece.2013.07.016</t>
-  </si>
-  <si>
-    <t>10.1016/j.polymdegradstab.2018.01.014</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2003.01.001</t>
-  </si>
-  <si>
-    <t>10.1007/s10924-019-01642-5</t>
-  </si>
-  <si>
-    <t>10.1016/j.istruc.2020.05.009</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2016-1022</t>
-  </si>
-  <si>
-    <t>10.1021/ie202077g</t>
-  </si>
-  <si>
-    <t>10.1617/s11527-020-1456-4</t>
-  </si>
-  <si>
-    <t>10.1590/s0100-40422006000100022</t>
-  </si>
-  <si>
-    <t>10.5007/1807-0221.2017v14n25p2</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/AMR.418-420.1072</t>
-  </si>
-  <si>
-    <t>10.1590/s0103-50532007000500005</t>
-  </si>
-  <si>
-    <t>10.1016/j.polymdegradstab.2006.06.004</t>
-  </si>
-  <si>
-    <t>10.6000/1929-5995.2014.03.03.4</t>
-  </si>
-  <si>
-    <t>10.1177/0734242x15584845</t>
-  </si>
-  <si>
-    <t>10.1590/s1517-707620170004.0224</t>
-  </si>
-  <si>
-    <t>10.1016/j.compstruct.2017.05.076</t>
-  </si>
-  <si>
-    <t>10.1590/s1517-70762009000300014</t>
-  </si>
-  <si>
-    <t>10.1002/app.27055</t>
-  </si>
-  <si>
-    <t>10.1016/j.polymer.2017.12.038</t>
-  </si>
-  <si>
-    <t>10.1590/S1516-14392012005000058</t>
-  </si>
-  <si>
-    <t>10.1007/s13762-019-02570-6</t>
-  </si>
-  <si>
-    <t>10.1590/S0104-14282011005000029</t>
-  </si>
-  <si>
-    <t>10.1177/0734242x18777795</t>
-  </si>
-  <si>
-    <t>10.1080/15440478.2020.1764436</t>
-  </si>
-  <si>
-    <t>10.1016/j.compscitech.2008.10.006</t>
-  </si>
-  <si>
-    <t>10.29187/jscmt.2021.54</t>
-  </si>
-  <si>
-    <t>10.1002/app.51873</t>
-  </si>
-  <si>
-    <t>10.33448/rsd-v10i7.16661</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/app.20211978</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/app.25671</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/app.27055</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/app.47456</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/app.54267</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1002/tqem.70010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10163-022-01502-w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10924-019-01642-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10924-020-01883-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s13726-025-01474-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s13762-019-02570-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s13762-021-03229-x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s42417-024-01312-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/B978-0-323-93940-9.00022-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.compscitech.2008.10.006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.compstruct.2017.05.076</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.istruc.2020.05.009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jece.2013.07.016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2003.01.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.polymdegradstab.2006.06.004</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.polymdegradstab.2018.01.014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.polymer.2017.12.038</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1021/ie202077g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1080/02773813.2024.2379858</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1080/15440478.2017.1379044</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1080/15440478.2020.1764436</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1177/00219983221083734</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1177/00219983231185105</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1177/0734242x15584845</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1177/0734242x18777795</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2016-1022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S0104-14282011005000029</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S1516-14392012005000058</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/s0100-40422006000100022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/s0103-50532007000500005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/s1517-70762009000300014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/s1517-707620170004.0224</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1617/s11527-020-1456-4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.29187/jscmt.2021.54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.33448/rsd-v10i7.16661</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/AMR.418-420.1072</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.5007/1807-0221.2017v14n25p2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.6000/1929-5995.2014.03.03.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.6000/1929-5995.2016.05.02.1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Sans"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -143,12 +435,8 @@
       <name val="Sans"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,18 +453,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -571,32 +855,60 @@
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
+      <c r="A35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>34</v>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>33</v>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" ht="12.75" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="46" ht="12.75" customHeight="1"/>
     <row r="47" ht="12.75" customHeight="1"/>
     <row r="48" ht="12.75" customHeight="1"/>
@@ -1553,6 +1865,52 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+    <hyperlink r:id="rId16" ref="A17"/>
+    <hyperlink r:id="rId17" ref="A18"/>
+    <hyperlink r:id="rId18" ref="A19"/>
+    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink r:id="rId20" ref="A21"/>
+    <hyperlink r:id="rId21" ref="A22"/>
+    <hyperlink r:id="rId22" ref="A23"/>
+    <hyperlink r:id="rId23" ref="A24"/>
+    <hyperlink r:id="rId24" ref="A25"/>
+    <hyperlink r:id="rId25" ref="A26"/>
+    <hyperlink r:id="rId26" ref="A27"/>
+    <hyperlink r:id="rId27" ref="A28"/>
+    <hyperlink r:id="rId28" ref="A29"/>
+    <hyperlink r:id="rId29" ref="A30"/>
+    <hyperlink r:id="rId30" ref="A31"/>
+    <hyperlink r:id="rId31" ref="A32"/>
+    <hyperlink r:id="rId32" ref="A33"/>
+    <hyperlink r:id="rId33" ref="A34"/>
+    <hyperlink r:id="rId34" ref="A35"/>
+    <hyperlink r:id="rId35" ref="A36"/>
+    <hyperlink r:id="rId36" ref="A37"/>
+    <hyperlink r:id="rId37" ref="A38"/>
+    <hyperlink r:id="rId38" ref="A39"/>
+    <hyperlink r:id="rId39" ref="A40"/>
+    <hyperlink r:id="rId40" ref="A41"/>
+    <hyperlink r:id="rId41" ref="A42"/>
+    <hyperlink r:id="rId42" ref="A43"/>
+    <hyperlink r:id="rId43" ref="A44"/>
+    <hyperlink r:id="rId44" ref="A45"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.6666666666666667" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.6666666666666667"/>
   <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait"/>
@@ -1560,6 +1918,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId45"/>
 </worksheet>
 </file>